--- a/biology/Zoologie/Aculus_eurynotus/Aculus_eurynotus.xlsx
+++ b/biology/Zoologie/Aculus_eurynotus/Aculus_eurynotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aculus eurynotus est une espèce d'acariens de la famille des Eriophyidae et du genre Aculus. C'est un parasite de Daucus carota (la Carotte), Torilis arvensis et Torilis japonica. Ces acariens vagabondent sur la face inférieure des feuilles. À des densités élevées, des roussissements peuvent se produire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aculus eurynotus est une espèce d'acariens de la famille des Eriophyidae et du genre Aculus. C'est un parasite de Daucus carota (la Carotte), Torilis arvensis et Torilis japonica. Ces acariens vagabondent sur la face inférieure des feuilles. À des densités élevées, des roussissements peuvent se produire.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Europe en Autriche, Allemagne, Hongrie, Italie, Pologne et ex-Yougoslavie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Europe en Autriche, Allemagne, Hongrie, Italie, Pologne et ex-Yougoslavie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Aculus eurynotus (Nalepa, 1894)[3].
-Cette espèce a d'abord été classée dans le genre Phyllocoptes sous le basionyme Phyllocoptes eurynotus Nalepa, 1894[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Aculus eurynotus (Nalepa, 1894).
+Cette espèce a d'abord été classée dans le genre Phyllocoptes sous le basionyme Phyllocoptes eurynotus Nalepa, 1894.
 </t>
         </is>
       </c>
